--- a/biology/Médecine/Eugène_Villejean/Eugène_Villejean.xlsx
+++ b/biology/Médecine/Eugène_Villejean/Eugène_Villejean.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Villejean</t>
+          <t>Eugène_Villejean</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Eugène Villejean est un médecin et un homme politique français né le 22 janvier 1850 à Ancy-le-Franc (Yonne) et décédé le 22 mars 1930 à Andrésy[1].
+Eugène Villejean est un médecin et un homme politique français né le 22 janvier 1850 à Ancy-le-Franc (Yonne) et décédé le 22 mars 1930 à Andrésy.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Villejean</t>
+          <t>Eugène_Villejean</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pharmacien des hôpitaux Trousseau, Lariboisière puis de l'Hôtel-Dieu de Paris, il est docteur en médecine en 1886 et professeur agrégé de toxicologie à la faculté de médecine de Paris. Il est député de l'Yonne de 1895 à 1910, siégeant au groupe de la Gauche radicale. Il est président de la commission de l'hygiène de 1902 à 1910. 
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Villejean</t>
+          <t>Eugène_Villejean</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« Eugène Villejean », dans le Dictionnaire des parlementaires français (1889-1940), sous la direction de Jean Jolly, PUF, 1960 [détail de l’édition]</t>
         </is>
